--- a/testData/input.xlsx
+++ b/testData/input.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SunitaGautam\Desktop\Automation\Admission_onlineForm\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{468DF19B-9E93-471C-B581-B46C54FE0A5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED1AFED5-00D3-4F3D-92C4-FC6FF90DDF5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="53">
   <si>
     <t>D-Block, Sector 51, Noida</t>
   </si>
@@ -148,9 +148,6 @@
     <t>Singh</t>
   </si>
   <si>
-    <t>Shub</t>
-  </si>
-  <si>
     <t>Bahadur</t>
   </si>
   <si>
@@ -167,16 +164,45 @@
   </si>
   <si>
     <t>8765482197</t>
+  </si>
+  <si>
+    <t>Rotiut</t>
+  </si>
+  <si>
+    <t>Tarunn</t>
+  </si>
+  <si>
+    <t>tarun@gmail.com</t>
+  </si>
+  <si>
+    <t>9765482199</t>
+  </si>
+  <si>
+    <t>8876543213</t>
+  </si>
+  <si>
+    <t>Komal</t>
+  </si>
+  <si>
+    <t>Komal@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -231,16 +257,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -519,10 +548,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C324D49-EC86-430E-9E10-9CCA3F8D1CB4}">
-  <dimension ref="A1:W2"/>
+  <dimension ref="A1:W10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="U17" sqref="U17"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="V15" sqref="V15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -643,7 +672,7 @@
         <v>19</v>
       </c>
       <c r="I2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
         <v>39</v>
@@ -664,41 +693,48 @@
         <v>23</v>
       </c>
       <c r="P2" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>42</v>
+        <v>40</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>48</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="S2" t="s">
         <v>32</v>
       </c>
       <c r="T2" t="s">
-        <v>44</v>
-      </c>
-      <c r="U2" t="s">
-        <v>45</v>
+        <v>51</v>
+      </c>
+      <c r="U2" s="4" t="s">
+        <v>52</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="W2" t="s">
         <v>33</v>
       </c>
     </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="Q10" s="4"/>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="Q2" r:id="rId1" xr:uid="{DB592876-5189-46A3-B74A-DE6518C8E36B}"/>
+    <hyperlink ref="U2" r:id="rId2" xr:uid="{9CB2EEC4-6DBD-4F6D-9500-EF9331B32B83}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:W7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -712,7 +748,7 @@
     <col min="8" max="8" width="14.7265625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -738,7 +774,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -759,6 +795,77 @@
       </c>
       <c r="G2" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" t="s">
+        <v>46</v>
+      </c>
+      <c r="J7" t="s">
+        <v>39</v>
+      </c>
+      <c r="K7" t="s">
+        <v>7</v>
+      </c>
+      <c r="L7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M7" t="s">
+        <v>22</v>
+      </c>
+      <c r="N7" t="s">
+        <v>37</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="P7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>41</v>
+      </c>
+      <c r="R7" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="S7" t="s">
+        <v>32</v>
+      </c>
+      <c r="T7" t="s">
+        <v>43</v>
+      </c>
+      <c r="U7" t="s">
+        <v>44</v>
+      </c>
+      <c r="V7" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="W7" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/testData/input.xlsx
+++ b/testData/input.xlsx
@@ -1,32 +1,45 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SunitaGautam\Desktop\Automation\Admission_onlineForm\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED1AFED5-00D3-4F3D-92C4-FC6FF90DDF5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C097A4A-C19C-4E4A-B07D-A2EB05247BCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="AdmissionFormData" sheetId="8" r:id="rId1"/>
-    <sheet name="dropdown_data" sheetId="6" r:id="rId2"/>
+    <sheet name="AdmissionForm_NoDiscount" sheetId="11" r:id="rId1"/>
+    <sheet name="AdmissionForm_Sibling" sheetId="8" r:id="rId2"/>
+    <sheet name="AdmissionForm_SingleParent" sheetId="9" r:id="rId3"/>
+    <sheet name="AdmissionForm_Staff" sheetId="10" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="62">
   <si>
     <t>D-Block, Sector 51, Noida</t>
   </si>
@@ -64,9 +77,6 @@
     <t>Program</t>
   </si>
   <si>
-    <t>Discount</t>
-  </si>
-  <si>
     <t>State</t>
   </si>
   <si>
@@ -142,42 +152,15 @@
     <t>Noida</t>
   </si>
   <si>
-    <t>rEmployeeName</t>
-  </si>
-  <si>
     <t>Singh</t>
   </si>
   <si>
     <t>Bahadur</t>
   </si>
   <si>
-    <t>rb@gmail.com</t>
-  </si>
-  <si>
-    <t>9876543219</t>
-  </si>
-  <si>
-    <t>Arti</t>
-  </si>
-  <si>
-    <t>arti@gmail.com</t>
-  </si>
-  <si>
-    <t>8765482197</t>
-  </si>
-  <si>
-    <t>Rotiut</t>
-  </si>
-  <si>
-    <t>Tarunn</t>
-  </si>
-  <si>
     <t>tarun@gmail.com</t>
   </si>
   <si>
-    <t>9765482199</t>
-  </si>
-  <si>
     <t>8876543213</t>
   </si>
   <si>
@@ -185,6 +168,63 @@
   </si>
   <si>
     <t>Komal@gmail.com</t>
+  </si>
+  <si>
+    <t>8876543233</t>
+  </si>
+  <si>
+    <t>9765499999</t>
+  </si>
+  <si>
+    <t>dis_type</t>
+  </si>
+  <si>
+    <t>Single Parent Discount</t>
+  </si>
+  <si>
+    <t>Staff Discount</t>
+  </si>
+  <si>
+    <t>EmployeeName</t>
+  </si>
+  <si>
+    <t>9765999999</t>
+  </si>
+  <si>
+    <t>Half Day (9:00 AM - 12:30 PM)</t>
+  </si>
+  <si>
+    <t>koyal</t>
+  </si>
+  <si>
+    <t>Koyal</t>
+  </si>
+  <si>
+    <t>Kadin</t>
+  </si>
+  <si>
+    <t>Veer</t>
+  </si>
+  <si>
+    <t>fi@gmail.com</t>
+  </si>
+  <si>
+    <t>9951497605</t>
+  </si>
+  <si>
+    <t>mfi@gmail.com</t>
+  </si>
+  <si>
+    <t>Mahi</t>
+  </si>
+  <si>
+    <t>9569604010</t>
+  </si>
+  <si>
+    <t>Mahiid</t>
+  </si>
+  <si>
+    <t>Mehdb</t>
   </si>
 </sst>
 </file>
@@ -547,11 +587,180 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E31024F-FB6A-4C95-B9B6-3EE0911695E6}">
+  <dimension ref="A1:U6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="21.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.08984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.6328125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="N2" t="s">
+        <v>60</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R2" t="s">
+        <v>61</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="U2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="O6" s="4"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="O2" r:id="rId1" xr:uid="{C36062D2-02E8-41B0-B8E5-7E54870AFBB1}"/>
+    <hyperlink ref="S2" r:id="rId2" xr:uid="{FA82DECE-1DF4-4855-82F2-A3044C4B0ED7}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C324D49-EC86-430E-9E10-9CCA3F8D1CB4}">
-  <dimension ref="A1:W10"/>
+  <dimension ref="A1:W6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="V15" sqref="V15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -592,13 +801,13 @@
         <v>11</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="H1" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>4</v>
@@ -610,40 +819,40 @@
         <v>6</v>
       </c>
       <c r="L1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="M1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="P1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.35">
@@ -657,68 +866,68 @@
         <v>9</v>
       </c>
       <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
         <v>14</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>15</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>16</v>
       </c>
-      <c r="G2" t="s">
-        <v>17</v>
-      </c>
       <c r="H2" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="J2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
         <v>7</v>
       </c>
       <c r="L2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" t="s">
         <v>21</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="N2" t="s">
-        <v>37</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="P2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="S2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T2" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="U2" s="4" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="V2" s="3" t="s">
         <v>49</v>
       </c>
       <c r="W2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="Q10" s="4"/>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="Q6" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -729,23 +938,177 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:W7"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{118E44E0-0531-4E4B-8E47-B27FB6767DAD}">
+  <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="38" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7265625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.90625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="36.08984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.08984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7265625" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="O2" t="s">
+        <v>41</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="R2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="P2" r:id="rId1" xr:uid="{66CA804B-F2AD-4213-BD5C-383B93EF7E42}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AAB752F-C715-488D-9A19-5B249F6A5FCD}">
+  <dimension ref="A1:W9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="21.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.08984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.6328125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.35">
@@ -765,13 +1128,58 @@
         <v>11</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="H1" s="2" t="s">
-        <v>38</v>
+        <v>48</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.35">
@@ -785,90 +1193,74 @@
         <v>9</v>
       </c>
       <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
         <v>14</v>
       </c>
-      <c r="E2" t="s">
-        <v>15</v>
-      </c>
       <c r="F2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" t="s">
         <v>16</v>
       </c>
-      <c r="G2" t="s">
-        <v>17</v>
+      <c r="H2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="P2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="S2" t="s">
+        <v>31</v>
+      </c>
+      <c r="T2" t="s">
+        <v>41</v>
+      </c>
+      <c r="U2" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="W2" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I7" t="s">
-        <v>46</v>
-      </c>
-      <c r="J7" t="s">
-        <v>39</v>
-      </c>
-      <c r="K7" t="s">
-        <v>7</v>
-      </c>
-      <c r="L7" t="s">
-        <v>21</v>
-      </c>
-      <c r="M7" t="s">
-        <v>22</v>
-      </c>
-      <c r="N7" t="s">
-        <v>37</v>
-      </c>
-      <c r="O7" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="P7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>41</v>
-      </c>
-      <c r="R7" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="S7" t="s">
-        <v>32</v>
-      </c>
-      <c r="T7" t="s">
-        <v>43</v>
-      </c>
-      <c r="U7" t="s">
-        <v>44</v>
-      </c>
-      <c r="V7" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="W7" t="s">
-        <v>33</v>
-      </c>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="Q9" s="4"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="Q2" r:id="rId1" xr:uid="{79A1E783-CE9B-4C6E-A943-02A5AF6A7774}"/>
+    <hyperlink ref="U2" r:id="rId2" xr:uid="{3B5D7458-611A-413B-9EB7-D1646FA3EC6E}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>